--- a/Datos_Paises.xlsx
+++ b/Datos_Paises.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EPS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EPS\Desktop\ic\IC-Grupo5-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD29C8B3-A76C-4F5B-994E-40A8F1E30753}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2E8756-E342-4A6C-B715-1319BFCEDC5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{B82D4B37-447A-49DA-ACA7-BF691F3FC3BB}"/>
   </bookViews>
@@ -18,13 +18,19 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Full1!$B$4:$B$27</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Full1!$C$3</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Full1!$F$3</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Full1!$F$4:$F$27</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Full1!$K$4:$K$27</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Full1!$L$3</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Full1!$L$4:$L$27</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Full1!$C$4:$C$27</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Full1!$B$4:$B$27</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Full1!$C$3</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Full1!$C$4:$C$27</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Full1!$E$4:$E$27</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Full1!$F$3</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Full1!$F$4:$F$27</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Full1!$K$4:$K$27</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Full1!$L$3</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Full1!$L$4:$L$27</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Full1!$H$4:$H$27</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Full1!$I$3</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Full1!$I$4:$I$27</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Full1!$E$4:$E$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -309,12 +315,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -332,6 +332,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -353,6 +359,2877 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Datos España</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ca-ES-valencia" sz="1800" b="1" i="1" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Datos España</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:plotSurface>
+          <cx:spPr>
+            <a:noFill/>
+          </cx:spPr>
+        </cx:plotSurface>
+        <cx:series layoutId="clusteredColumn" uniqueId="{D5A1ECBE-F3C5-4736-A5C8-36F018C727E1}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:v>RESULT. BÚSQ.</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="0" uniqueId="{C062609E-8857-4092-94CD-AF6F10451962}">
+          <cx:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:axisId val="2"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0.0199999996"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="2" hidden="1">
+        <cx:valScaling max="1" min="0"/>
+        <cx:units unit="percentage"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+  <cx:spPr>
+    <a:ln w="25400">
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+    </a:ln>
+  </cx:spPr>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.11</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Datos EEUU</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ca-ES-valencia" sz="1800" b="1" i="1" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Datos EEUU</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{7C0CB71C-E355-4928-BC10-E997BA5ABBE2}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:v>RESULT. BÚSQ.</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels/>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="0" uniqueId="{05E5998A-9C3A-49D7-9CF4-870B21F20CA9}">
+          <cx:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:axisId val="2"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0.0399999991"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="2" hidden="1">
+        <cx:valScaling max="1" min="0"/>
+        <cx:units unit="percentage"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.6</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.8</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Datos UK</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ca-ES-valencia" sz="1800" b="1" i="1" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Datos UK</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{4078D2EB-2773-4DD3-956B-878D140CA110}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.7</cx:f>
+              <cx:v>RESULT. BÚSQ.</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels/>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="0" uniqueId="{D80CEB1B-EFA6-4747-89DE-EEAEC4722C19}">
+          <cx:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:axisId val="2"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="2">
+        <cx:valScaling max="1" min="0"/>
+        <cx:units unit="percentage"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.12</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.14</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Datos Alemania</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ca-ES-valencia" sz="1800" b="1" i="1" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Datos Alemania</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{C8FB448F-12C7-44E8-822B-D0FBBC818E06}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.13</cx:f>
+              <cx:v>RESULT. BÚSQ.</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels/>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="0" uniqueId="{AC6FBF8A-EAC4-4747-9F83-325E6BC25BC2}">
+          <cx:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:axisId val="2"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0.0299999993"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="2">
+        <cx:valScaling max="1" min="0"/>
+        <cx:units unit="percentage"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>24641</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95873</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Gràfic 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0328DDE2-688E-4083-9B20-06C3F073B1D7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="600075" y="7006466"/>
+              <a:ext cx="9754223" cy="6280909"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ca-ES-valencia" sz="1100"/>
+                <a:t>Este gràfic no està disponible amb esta versió de l'Excel.
+Si editeu esta forma o guardeu el llibre de treball amb un format de fitxer diferent, el gràfic deixarà de funcionar permanentment.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>52386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Gràfic 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CE46095-0CE9-4F2F-827F-51FE3254A413}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10687050" y="7034211"/>
+              <a:ext cx="9220200" cy="6300789"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ca-ES-valencia" sz="1100"/>
+                <a:t>Este gràfic no està disponible amb esta versió de l'Excel.
+Si editeu esta forma o guardeu el llibre de treball amb un format de fitxer diferent, el gràfic deixarà de funcionar permanentment.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>43542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="6" name="Gràfic 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{765B906E-ABEA-426D-BCE8-E0410347AA80}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="571500" y="13969092"/>
+              <a:ext cx="9810750" cy="7004958"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ca-ES-valencia" sz="1100"/>
+                <a:t>Este gràfic no està disponible amb esta versió de l'Excel.
+Si editeu esta forma o guardeu el llibre de treball amb un format de fitxer diferent, el gràfic deixarà de funcionar permanentment.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>402167</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>163284</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>10583</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="7" name="Gràfic 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C2FA8B9-5064-44AB-B054-1B1E552FEC67}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10661953" y="13867190"/>
+              <a:ext cx="9286117" cy="7016750"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ca-ES-valencia" sz="1100"/>
+                <a:t>Este gràfic no està disponible amb esta versió de l'Excel.
+Si editeu esta forma o guardeu el llibre de treball amb un format de fitxer diferent, el gràfic deixarà de funcionar permanentment.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -654,8 +3531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9383509-1EF6-4A14-BE8A-CAA061162A14}">
   <dimension ref="B1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,671 +3549,671 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="E2" s="4" t="s">
+      <c r="C2" s="11"/>
+      <c r="E2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="H2" s="4" t="s">
+      <c r="F2" s="11"/>
+      <c r="H2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="K2" s="4" t="s">
+      <c r="I2" s="11"/>
+      <c r="K2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="5"/>
+      <c r="L2" s="11"/>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <v>19</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="5">
         <v>2000</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="5">
         <v>314</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="5">
         <v>173</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="6">
         <v>224</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="6">
         <v>8000</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="6">
         <v>1000</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="6">
         <v>1000</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <v>4</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="6">
         <v>563</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="6">
         <v>38</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="6">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="6">
         <v>207</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="6">
         <v>11000</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="6">
         <v>732</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="6">
         <v>523</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="6">
         <v>0</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="6">
         <v>121</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="6">
         <v>26</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="6">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="6">
         <v>1</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="6">
         <v>85</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="6">
         <v>29</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="6">
         <v>30</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="6">
         <v>1000</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="6">
         <v>124</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="6">
         <v>104</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="6">
         <v>3</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="6">
         <v>294</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="6">
         <v>38</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="6">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="6">
         <v>420</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="6">
         <v>10000</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="6">
         <v>1</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="6">
         <v>1000</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="6">
         <v>59</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="6">
         <v>110000</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="6">
         <v>17000</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="6">
         <v>39000</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="6">
         <v>327</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="6">
         <v>47000</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="6">
         <v>23</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="6">
         <v>14000</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="6">
         <v>34</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="6">
         <v>2000</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="6">
         <v>68</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="6">
         <v>116</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="6">
         <v>18</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="6">
         <v>1000</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="6">
         <v>56</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="6">
         <v>173</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="6">
         <v>15</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="6">
         <v>29</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="6">
         <v>75</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="6">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="6">
         <v>10</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="6">
         <v>707</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="6">
         <v>4000</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="6">
         <v>105</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="6">
         <v>5000</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="6">
         <v>473</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="K19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="6">
         <v>151</v>
       </c>
     </row>
     <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="6">
         <v>104</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="6">
         <v>14000</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="6">
         <v>161</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="K20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="6">
         <v>338</v>
       </c>
     </row>
     <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="6">
         <v>5</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="6">
         <v>642</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="6">
         <v>47</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="K21" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L21" s="6">
         <v>121</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="6">
         <v>11</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="6">
         <v>764</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="6">
         <v>654</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="K22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L22" s="6">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="6">
         <v>6</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="6">
         <v>396</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="6">
         <v>51</v>
       </c>
-      <c r="K23" s="8" t="s">
+      <c r="K23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="8">
+      <c r="L23" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="6">
         <v>1</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="6">
         <v>153</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="6">
         <v>358</v>
       </c>
-      <c r="K24" s="8" t="s">
+      <c r="K24" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L24" s="8">
+      <c r="L24" s="6">
         <v>14</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="6">
         <v>31</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="6">
         <v>3000</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="H25" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="6">
         <v>13</v>
       </c>
-      <c r="K25" s="8" t="s">
+      <c r="K25" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L25" s="8">
+      <c r="L25" s="6">
         <v>75</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="8">
         <v>533</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="8">
         <v>43000</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="H26" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="8">
         <v>9000</v>
       </c>
-      <c r="K26" s="10" t="s">
+      <c r="K26" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L26" s="10">
+      <c r="L26" s="8">
         <v>9000</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="9">
         <v>1</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="9">
         <v>553</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="9">
         <v>8000</v>
       </c>
-      <c r="K27" s="9" t="s">
+      <c r="K27" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L27" s="11">
+      <c r="L27" s="9">
         <v>52</v>
       </c>
     </row>
@@ -1384,5 +4261,6 @@
     <mergeCell ref="K2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>